--- a/src/main/java/io/percy/selenium/Percy.xlsx
+++ b/src/main/java/io/percy/selenium/Percy.xlsx
@@ -151,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,19 +164,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,14 +200,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="123.31"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="123.3"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,7 +219,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -239,24 +235,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -283,26 +276,26 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -310,7 +303,7 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/main/java/io/percy/selenium/Percy.xlsx
+++ b/src/main/java/io/percy/selenium/Percy.xlsx
@@ -200,7 +200,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/io/percy/selenium/Percy.xlsx
+++ b/src/main/java/io/percy/selenium/Percy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -29,25 +29,22 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">GMB_PL.png</t>
+    <t xml:space="preserve">GMB_PL</t>
   </si>
   <si>
     <t xml:space="preserve">/personal-loan</t>
   </si>
   <si>
-    <t xml:space="preserve">GL_Desktop.png</t>
+    <t xml:space="preserve">GMB_GL</t>
   </si>
   <si>
     <t xml:space="preserve">/gold-loan</t>
   </si>
   <si>
-    <t xml:space="preserve">GMB_IPL.png</t>
+    <t xml:space="preserve">GMB_IPL</t>
   </si>
   <si>
     <t xml:space="preserve">/insta-emi-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMB_IPL</t>
   </si>
   <si>
     <t xml:space="preserve">https://testing.singleinterface.com/storepages/insta-personal-loan-personal-loans-afghan-restaurants-shegaon-naka-chowk-amravati-177234</t>
@@ -200,7 +197,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,26 +282,26 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/io/percy/selenium/Percy.xlsx
+++ b/src/main/java/io/percy/selenium/Percy.xlsx
@@ -194,7 +194,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -238,15 +238,6 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/java/io/percy/selenium/Percy.xlsx
+++ b/src/main/java/io/percy/selenium/Percy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMB_FD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/investments/fixed-deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">GMB_IPL</t>
@@ -95,15 +119,15 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -151,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,15 +192,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,7 +254,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="/investments/fixed-deposit"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -251,51 +290,51 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="123.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
